--- a/Code/Results/Cases/Case_2_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.25869201550481</v>
+        <v>8.731256310823452</v>
       </c>
       <c r="C2">
-        <v>8.019843179272659</v>
+        <v>5.285850051013121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.53494291026941</v>
+        <v>16.48685598771166</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.078125236661003</v>
+        <v>3.620103850911608</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.6804365135901</v>
+        <v>19.05331118567647</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.09620476409739</v>
+        <v>8.493242427114655</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.44008373291581</v>
+        <v>17.47350436778733</v>
       </c>
       <c r="O2">
-        <v>12.89258877264844</v>
+        <v>20.01887315098602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.41527534073052</v>
+        <v>8.402703154092155</v>
       </c>
       <c r="C3">
-        <v>7.556261437339534</v>
+        <v>5.064474738559142</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.41106208046312</v>
+        <v>15.55380046419533</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.082753478218019</v>
+        <v>3.621776292545836</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.87055317705802</v>
+        <v>19.14799814755978</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.40126805814374</v>
+        <v>8.266680856509749</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.62771098753287</v>
+        <v>17.53001518415936</v>
       </c>
       <c r="O3">
-        <v>12.93167672366116</v>
+        <v>20.10083240152243</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.86812521167949</v>
+        <v>8.19549823733208</v>
       </c>
       <c r="C4">
-        <v>7.257756899430996</v>
+        <v>4.922436083984493</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.04258349435932</v>
+        <v>14.95600349312518</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.085672368148199</v>
+        <v>3.622856248355717</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.99740362936325</v>
+        <v>19.2099974006202</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.95283253108481</v>
+        <v>8.125655209943549</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.74553113946384</v>
+        <v>17.56639366339047</v>
       </c>
       <c r="O4">
-        <v>12.97015951050848</v>
+        <v>20.15590539820283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63778202005519</v>
+        <v>8.10981548545875</v>
       </c>
       <c r="C5">
-        <v>7.13265056988352</v>
+        <v>4.863063140124837</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.46844890203311</v>
+        <v>14.70640538831743</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.086881902901125</v>
+        <v>3.623309727855603</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.0515148684754</v>
+        <v>19.23623274716568</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.76466794182869</v>
+        <v>8.067790647899823</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.79422287780938</v>
+        <v>17.58164205054554</v>
       </c>
       <c r="O5">
-        <v>12.98929007954902</v>
+        <v>20.17953871921995</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.59908817242023</v>
+        <v>8.095516824485314</v>
       </c>
       <c r="C6">
-        <v>7.111668502744132</v>
+        <v>4.853115737289784</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.37211192749071</v>
+        <v>14.66460689533891</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.087083975824305</v>
+        <v>3.623385837718741</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.06064262602334</v>
+        <v>19.24064768008242</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.73309742315142</v>
+        <v>8.058161010078328</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.80234971954286</v>
+        <v>17.58419967089545</v>
       </c>
       <c r="O6">
-        <v>12.99266941136886</v>
+        <v>20.18353481591756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8650485905915</v>
+        <v>8.194347548006611</v>
       </c>
       <c r="C7">
-        <v>7.256083655101247</v>
+        <v>4.921641330807557</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.03490754554171</v>
+        <v>14.95266118802348</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.085688598264179</v>
+        <v>3.622862309870342</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.99812375698183</v>
+        <v>19.21034729257146</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.95031676629652</v>
+        <v>8.124876311979856</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.74618503639701</v>
+        <v>17.56659759061418</v>
       </c>
       <c r="O7">
-        <v>12.97040380131813</v>
+        <v>20.15621930960555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.97395169633896</v>
+        <v>8.619181223941547</v>
       </c>
       <c r="C8">
-        <v>7.862887320594057</v>
+        <v>5.210814328280755</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.81582760387969</v>
+        <v>16.17045195415212</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.07970546085987</v>
+        <v>3.620669520608454</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.74380947907998</v>
+        <v>19.08515742287965</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.86112377256584</v>
+        <v>8.415571945034738</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.50424769313279</v>
+        <v>17.49264124626519</v>
       </c>
       <c r="O8">
-        <v>12.90294294060746</v>
+        <v>20.04614467648594</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.91706814168161</v>
+        <v>9.40379011832459</v>
       </c>
       <c r="C9">
-        <v>8.94246122904001</v>
+        <v>5.727671106647951</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.77129899992568</v>
+        <v>18.43350206724235</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.068552081817653</v>
+        <v>3.61678854473426</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.33166899539222</v>
+        <v>18.87033065705826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.47365986342609</v>
+        <v>8.966882288643177</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.04955066175761</v>
+        <v>17.36088997086348</v>
       </c>
       <c r="O9">
-        <v>12.89438865994971</v>
+        <v>19.86814058557959</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20550117021963</v>
+        <v>9.944791123721302</v>
       </c>
       <c r="C10">
-        <v>9.668652682692063</v>
+        <v>6.074915331238961</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.12825916558336</v>
+        <v>20.06841821108013</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.060662009521202</v>
+        <v>3.61418985241171</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.09138054739772</v>
+        <v>18.73124296336817</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.55225024322865</v>
+        <v>9.356137683148024</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.72600765309484</v>
+        <v>17.272104285502</v>
       </c>
       <c r="O10">
-        <v>12.97579393068432</v>
+        <v>19.76066115226335</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76197671670855</v>
+        <v>10.18220092699345</v>
       </c>
       <c r="C11">
-        <v>9.984737841887375</v>
+        <v>6.225531510947703</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.59861212696559</v>
+        <v>20.76994946461659</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.057126730466241</v>
+        <v>3.613061901632129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.99809886402424</v>
+        <v>18.67205044179281</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.02006377385099</v>
+        <v>9.528978598031593</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.5807453632231</v>
+        <v>17.23343569554424</v>
       </c>
       <c r="O11">
-        <v>13.03452662739227</v>
+        <v>19.71687290455974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96849002820114</v>
+        <v>10.27078180347523</v>
       </c>
       <c r="C12">
-        <v>10.10241247415427</v>
+        <v>6.281489724320844</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.1476788561128</v>
+        <v>21.02956847929275</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.055794680571423</v>
+        <v>3.612642525399438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.96531059335923</v>
+        <v>18.65022355671945</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.19395548242083</v>
+        <v>9.595987292077099</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.5259825469702</v>
+        <v>17.21903902066127</v>
       </c>
       <c r="O12">
-        <v>13.06010639009432</v>
+        <v>19.70102936805005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.92420015274574</v>
+        <v>10.25176410932828</v>
       </c>
       <c r="C13">
-        <v>10.07715839132808</v>
+        <v>6.269486303521155</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.02976362580916</v>
+        <v>20.97392279794264</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.056081282315842</v>
+        <v>3.612732501348011</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.97225546025003</v>
+        <v>18.65489818981163</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.15664923150799</v>
+        <v>9.579838922213803</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.53776632903562</v>
+        <v>17.22212866645634</v>
       </c>
       <c r="O13">
-        <v>13.05444536034726</v>
+        <v>19.70440866461943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77905079476573</v>
+        <v>10.18951537728605</v>
       </c>
       <c r="C14">
-        <v>9.994459280118367</v>
+        <v>6.230156913234022</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.64393632470194</v>
+        <v>20.79142925403989</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.057017014493893</v>
+        <v>3.613027244122645</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.99534913891669</v>
+        <v>18.67024293705575</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.0344350860307</v>
+        <v>9.534321958968425</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.57623527235832</v>
+        <v>17.23224634296607</v>
       </c>
       <c r="O14">
-        <v>13.0365629239154</v>
+        <v>19.71555463106087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68959570134723</v>
+        <v>10.15121224945205</v>
       </c>
       <c r="C15">
-        <v>9.943541692355385</v>
+        <v>6.205925741058848</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.40661374778199</v>
+        <v>20.67886163639158</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.057591014225688</v>
+        <v>3.613208791210925</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.00983209970885</v>
+        <v>18.67971866223581</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.959151884066</v>
+        <v>9.506352587732254</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.59982953689351</v>
+        <v>17.23847575201759</v>
       </c>
       <c r="O15">
-        <v>13.02605071569944</v>
+        <v>19.72247810266761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.16854191888601</v>
+        <v>9.929094609308162</v>
       </c>
       <c r="C16">
-        <v>9.647711229442764</v>
+        <v>6.06492254693813</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.0310625669633</v>
+        <v>20.02172511707847</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.060894044404552</v>
+        <v>3.614264653953257</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.09781846681766</v>
+        <v>18.73519354025075</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.52121984530866</v>
+        <v>9.344751607854409</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.73553689487687</v>
+        <v>17.27466589289566</v>
       </c>
       <c r="O16">
-        <v>12.97241097433705</v>
+        <v>19.76362588614766</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.84133477397849</v>
+        <v>9.790552341909203</v>
       </c>
       <c r="C17">
-        <v>9.462595169583372</v>
+        <v>5.976524280278712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.17296952184532</v>
+        <v>19.6078079839845</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.062933431640831</v>
+        <v>3.614926246308813</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.15605756653663</v>
+        <v>18.77027136967501</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.24672731509918</v>
+        <v>9.244485315640333</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.81925905761056</v>
+        <v>17.29730722313763</v>
       </c>
       <c r="O17">
-        <v>12.94521845359588</v>
+        <v>19.79017906759459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.65034072032303</v>
+        <v>9.710051739252291</v>
       </c>
       <c r="C18">
-        <v>9.354776422811293</v>
+        <v>5.92498938070064</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.67404750745432</v>
+        <v>19.36575976442062</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.064111581678037</v>
+        <v>3.615311881404779</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.19104855608149</v>
+        <v>18.79083106824827</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.08669424882205</v>
+        <v>9.186419619741891</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.86759645164051</v>
+        <v>17.31049192163496</v>
       </c>
       <c r="O18">
-        <v>12.93160759506452</v>
+        <v>19.80593199184448</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.58519225920937</v>
+        <v>9.682657999937284</v>
       </c>
       <c r="C19">
-        <v>9.318039053070331</v>
+        <v>5.907422625193004</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.50418626431845</v>
+        <v>19.28312285189353</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.064511398427977</v>
+        <v>3.615443328799929</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.20314571337003</v>
+        <v>18.79785811378774</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.03213953420448</v>
+        <v>9.166693646401884</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.8839949388386</v>
+        <v>17.31498389273935</v>
       </c>
       <c r="O19">
-        <v>12.92734110652611</v>
+        <v>19.81134801741798</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.87645527031244</v>
+        <v>9.805385270248733</v>
       </c>
       <c r="C20">
-        <v>9.482440082272699</v>
+        <v>5.986006055283204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.26486770292763</v>
+        <v>19.65228122917139</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.062715810012945</v>
+        <v>3.614855290653946</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.14970175009061</v>
+        <v>18.76649753652053</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.27617010544479</v>
+        <v>9.255200191358053</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.81032800799423</v>
+        <v>17.2948802561925</v>
       </c>
       <c r="O20">
-        <v>12.94790150793859</v>
+        <v>19.78730270367983</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.82179855923243</v>
+        <v>10.20783570983254</v>
       </c>
       <c r="C21">
-        <v>10.01880454592236</v>
+        <v>6.241738279562059</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.75746909093792</v>
+        <v>20.84519557779458</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.056741994957345</v>
+        <v>3.612940460899977</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.98849520598132</v>
+        <v>18.6657198416638</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.07042054273353</v>
+        <v>9.547710025585561</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.56492962507538</v>
+        <v>17.22926786097999</v>
       </c>
       <c r="O21">
-        <v>13.041723073875</v>
+        <v>19.71226072590067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.41511251627898</v>
+        <v>10.46313378207995</v>
       </c>
       <c r="C22">
-        <v>10.35759622147145</v>
+        <v>6.402590180586887</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.34174194751963</v>
+        <v>21.58966871231237</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.052876143209073</v>
+        <v>3.61173418795169</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.89803887126626</v>
+        <v>18.60328405587727</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.57053109958388</v>
+        <v>9.78077422219409</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.40595868952494</v>
+        <v>17.18782137159912</v>
       </c>
       <c r="O22">
-        <v>13.12260359432741</v>
+        <v>19.66752064818281</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.10067533397483</v>
+        <v>10.32760438051128</v>
       </c>
       <c r="C23">
-        <v>10.17783974566142</v>
+        <v>6.317321326831434</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.50012781063624</v>
+        <v>21.19553627638737</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.054936291703784</v>
+        <v>3.612373878027433</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.94487168217671</v>
+        <v>18.63629302326301</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.30533822606016</v>
+        <v>9.650667239658297</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.49068624421427</v>
+        <v>17.20981120646932</v>
       </c>
       <c r="O23">
-        <v>13.07757422249766</v>
+        <v>19.69100410431828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.86058626292659</v>
+        <v>9.798681947928443</v>
       </c>
       <c r="C24">
-        <v>9.473472538556333</v>
+        <v>5.981721565863641</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.22333798824306</v>
+        <v>19.63218759175994</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.062814178981594</v>
+        <v>3.614887353264843</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.15257053309928</v>
+        <v>18.76820246241443</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.26286594793974</v>
+        <v>9.250357303494646</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.81436509652086</v>
+        <v>17.29597696484632</v>
       </c>
       <c r="O24">
-        <v>12.94668221604257</v>
+        <v>19.78860159061541</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.41600991999015</v>
+        <v>9.197379329582342</v>
       </c>
       <c r="C25">
-        <v>8.662228321368509</v>
+        <v>5.593437153786605</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.48207509566912</v>
+        <v>17.79378962551509</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.071512147609269</v>
+        <v>3.617793878957055</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.4329540219955</v>
+        <v>18.92515881192496</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.05608977635217</v>
+        <v>8.820217068425665</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.17059533145917</v>
+        <v>17.39511932353742</v>
       </c>
       <c r="O25">
-        <v>12.88219884321882</v>
+        <v>19.91221976678664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.731256310823452</v>
+        <v>13.25869201550477</v>
       </c>
       <c r="C2">
-        <v>5.285850051013121</v>
+        <v>8.019843179272806</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.48685598771166</v>
+        <v>29.53494291026935</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.620103850911608</v>
+        <v>2.078125236661273</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.05331118567647</v>
+        <v>11.68043651359022</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.493242427114655</v>
+        <v>12.0962047640974</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.47350436778733</v>
+        <v>11.44008373291584</v>
       </c>
       <c r="O2">
-        <v>20.01887315098602</v>
+        <v>12.89258877264848</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.402703154092155</v>
+        <v>12.41527534073049</v>
       </c>
       <c r="C3">
-        <v>5.064474738559142</v>
+        <v>7.556261437339582</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.55380046419533</v>
+        <v>27.41106208046308</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.621776292545836</v>
+        <v>2.082753478218152</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.14799814755978</v>
+        <v>11.87055317705821</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.266680856509749</v>
+        <v>11.4012680581437</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.53001518415936</v>
+        <v>11.62771098753296</v>
       </c>
       <c r="O3">
-        <v>20.10083240152243</v>
+        <v>12.93167672366133</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.19549823733208</v>
+        <v>11.8681252116796</v>
       </c>
       <c r="C4">
-        <v>4.922436083984493</v>
+        <v>7.257756899430788</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.95600349312518</v>
+        <v>26.04258349435936</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.622856248355717</v>
+        <v>2.085672368147797</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.2099974006202</v>
+        <v>11.99740362936308</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.125655209943549</v>
+        <v>10.95283253108479</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.56639366339047</v>
+        <v>11.74553113946378</v>
       </c>
       <c r="O4">
-        <v>20.15590539820283</v>
+        <v>12.97015951050838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.10981548545875</v>
+        <v>11.63778202005525</v>
       </c>
       <c r="C5">
-        <v>4.863063140124837</v>
+        <v>7.132650569883584</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.70640538831743</v>
+        <v>25.4684489020331</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.623309727855603</v>
+        <v>2.08688190290126</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.23623274716568</v>
+        <v>12.05151486847542</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.067790647899823</v>
+        <v>10.76466794182874</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.58164205054554</v>
+        <v>11.79422287780944</v>
       </c>
       <c r="O5">
-        <v>20.17953871921995</v>
+        <v>12.98929007954904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.095516824485314</v>
+        <v>11.59908817242017</v>
       </c>
       <c r="C6">
-        <v>4.853115737289784</v>
+        <v>7.111668502744013</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.66460689533891</v>
+        <v>25.37211192749065</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.623385837718741</v>
+        <v>2.087083975824306</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.24064768008242</v>
+        <v>12.06064262602344</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.058161010078328</v>
+        <v>10.7330974231514</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.58419967089545</v>
+        <v>11.8023497195429</v>
       </c>
       <c r="O6">
-        <v>20.18353481591756</v>
+        <v>12.99266941136895</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.194347548006611</v>
+        <v>11.86504859059152</v>
       </c>
       <c r="C7">
-        <v>4.921641330807557</v>
+        <v>7.256083655101282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.95266118802348</v>
+        <v>26.03490754554163</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.622862309870342</v>
+        <v>2.085688598264313</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.21034729257146</v>
+        <v>11.9981237569819</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.124876311979856</v>
+        <v>10.95031676629652</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.56659759061418</v>
+        <v>11.74618503639705</v>
       </c>
       <c r="O7">
-        <v>20.15621930960555</v>
+        <v>12.97040380131819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.619181223941547</v>
+        <v>12.9739516963389</v>
       </c>
       <c r="C8">
-        <v>5.210814328280755</v>
+        <v>7.862887320594103</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.17045195415212</v>
+        <v>28.81582760387966</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.620669520608454</v>
+        <v>2.079705460860136</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.08515742287965</v>
+        <v>11.74380947908001</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.415571945034738</v>
+        <v>11.86112377256582</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.49264124626519</v>
+        <v>11.50424769313276</v>
       </c>
       <c r="O8">
-        <v>20.04614467648594</v>
+        <v>12.90294294060746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.40379011832459</v>
+        <v>14.91706814168162</v>
       </c>
       <c r="C9">
-        <v>5.727671106647951</v>
+        <v>8.942461229040067</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.43350206724235</v>
+        <v>33.7712989999257</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.61678854473426</v>
+        <v>2.068552081817654</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.87033065705826</v>
+        <v>11.33166899539224</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.966882288643177</v>
+        <v>13.47365986342613</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.36088997086348</v>
+        <v>11.04955066175761</v>
       </c>
       <c r="O9">
-        <v>19.86814058557959</v>
+        <v>12.89438865994969</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.944791123721302</v>
+        <v>16.20550117021973</v>
       </c>
       <c r="C10">
-        <v>6.074915331238961</v>
+        <v>9.668652682691979</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.06841821108013</v>
+        <v>37.12825916558339</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.61418985241171</v>
+        <v>2.060662009521203</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.73124296336817</v>
+        <v>11.09138054739758</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.356137683148024</v>
+        <v>14.55225024322871</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.272104285502</v>
+        <v>10.72600765309477</v>
       </c>
       <c r="O10">
-        <v>19.76066115226335</v>
+        <v>12.97579393068423</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.18220092699345</v>
+        <v>16.76197671670851</v>
       </c>
       <c r="C11">
-        <v>6.225531510947703</v>
+        <v>9.984737841887627</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.76994946461659</v>
+        <v>38.59861212696558</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.613061901632129</v>
+        <v>2.057126730466242</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.67205044179281</v>
+        <v>10.99809886402439</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.528978598031593</v>
+        <v>15.02006377385097</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.23343569554424</v>
+        <v>10.58074536322316</v>
       </c>
       <c r="O11">
-        <v>19.71687290455974</v>
+        <v>13.03452662739234</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.27078180347523</v>
+        <v>16.96849002820119</v>
       </c>
       <c r="C12">
-        <v>6.281489724320844</v>
+        <v>10.10241247415427</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.02956847929275</v>
+        <v>39.14767885611285</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.612642525399438</v>
+        <v>2.055794680571422</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.65022355671945</v>
+        <v>10.96531059335919</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.595987292077099</v>
+        <v>15.19395548242088</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.21903902066127</v>
+        <v>10.52598254697013</v>
       </c>
       <c r="O12">
-        <v>19.70102936805005</v>
+        <v>13.06010639009426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.25176410932828</v>
+        <v>16.92420015274577</v>
       </c>
       <c r="C13">
-        <v>6.269486303521155</v>
+        <v>10.07715839132795</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.97392279794264</v>
+        <v>39.02976362580925</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.612732501348011</v>
+        <v>2.056081282315708</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.65489818981163</v>
+        <v>10.97225546024997</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.579838922213803</v>
+        <v>15.15664923150802</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.22212866645634</v>
+        <v>10.53776632903551</v>
       </c>
       <c r="O13">
-        <v>19.70440866461943</v>
+        <v>13.05444536034723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.18951537728605</v>
+        <v>16.77905079476577</v>
       </c>
       <c r="C14">
-        <v>6.230156913234022</v>
+        <v>9.994459280118416</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.79142925403989</v>
+        <v>38.643936324702</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.613027244122645</v>
+        <v>2.057017014494029</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.67024293705575</v>
+        <v>10.99534913891659</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.534321958968425</v>
+        <v>15.03443508603073</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.23224634296607</v>
+        <v>10.57623527235825</v>
       </c>
       <c r="O14">
-        <v>19.71555463106087</v>
+        <v>13.03656292391531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.15121224945205</v>
+        <v>16.68959570134724</v>
       </c>
       <c r="C15">
-        <v>6.205925741058848</v>
+        <v>9.943541692355438</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.67886163639158</v>
+        <v>38.40661374778199</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.613208791210925</v>
+        <v>2.057591014225822</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.67971866223581</v>
+        <v>11.00983209970879</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.506352587732254</v>
+        <v>14.95915188406608</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.23847575201759</v>
+        <v>10.59982953689348</v>
       </c>
       <c r="O15">
-        <v>19.72247810266761</v>
+        <v>13.02605071569937</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.929094609308162</v>
+        <v>16.16854191888606</v>
       </c>
       <c r="C16">
-        <v>6.06492254693813</v>
+        <v>9.64771122944282</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.02172511707847</v>
+        <v>37.03106256696323</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.614264653953257</v>
+        <v>2.060894044404686</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.73519354025075</v>
+        <v>11.09781846681768</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.344751607854409</v>
+        <v>14.52121984530871</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.27466589289566</v>
+        <v>10.7355368948769</v>
       </c>
       <c r="O16">
-        <v>19.76362588614766</v>
+        <v>12.97241097433705</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.790552341909203</v>
+        <v>15.8413347739785</v>
       </c>
       <c r="C17">
-        <v>5.976524280278712</v>
+        <v>9.462595169583372</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.6078079839845</v>
+        <v>36.17296952184527</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.614926246308813</v>
+        <v>2.062933431640963</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.77027136967501</v>
+        <v>11.15605756653645</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.244485315640333</v>
+        <v>14.24672731509916</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.29730722313763</v>
+        <v>10.81925905761042</v>
       </c>
       <c r="O17">
-        <v>19.79017906759459</v>
+        <v>12.94521845359574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.710051739252291</v>
+        <v>15.65034072032309</v>
       </c>
       <c r="C18">
-        <v>5.92498938070064</v>
+        <v>9.35477642281128</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.36575976442062</v>
+        <v>35.67404750745428</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.615311881404779</v>
+        <v>2.064111581677768</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.79083106824827</v>
+        <v>11.19104855608134</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.186419619741891</v>
+        <v>14.08669424882212</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.31049192163496</v>
+        <v>10.86759645164044</v>
       </c>
       <c r="O18">
-        <v>19.80593199184448</v>
+        <v>12.9316075950644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.682657999937284</v>
+        <v>15.58519225920937</v>
       </c>
       <c r="C19">
-        <v>5.907422625193004</v>
+        <v>9.318039053070235</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.28312285189353</v>
+        <v>35.50418626431851</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.615443328799929</v>
+        <v>2.064511398427709</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.79785811378774</v>
+        <v>11.20314571337004</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.166693646401884</v>
+        <v>14.03213953420445</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.31498389273935</v>
+        <v>10.8839949388386</v>
       </c>
       <c r="O19">
-        <v>19.81134801741798</v>
+        <v>12.92734110652614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.805385270248733</v>
+        <v>15.87645527031246</v>
       </c>
       <c r="C20">
-        <v>5.986006055283204</v>
+        <v>9.4824400822726</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.65228122917139</v>
+        <v>36.26486770292759</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.614855290653946</v>
+        <v>2.062715810013077</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.76649753652053</v>
+        <v>11.14970175009067</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.255200191358053</v>
+        <v>14.27617010544479</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.2948802561925</v>
+        <v>10.81032800799426</v>
       </c>
       <c r="O20">
-        <v>19.78730270367983</v>
+        <v>12.94790150793864</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.20783570983254</v>
+        <v>16.82179855923244</v>
       </c>
       <c r="C21">
-        <v>6.241738279562059</v>
+        <v>10.01880454592242</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.84519557779458</v>
+        <v>38.75746909093791</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.612940460899977</v>
+        <v>2.056741994957343</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.6657198416638</v>
+        <v>10.9884952059814</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.547710025585561</v>
+        <v>15.07042054273354</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.22926786097999</v>
+        <v>10.56492962507548</v>
       </c>
       <c r="O21">
-        <v>19.71226072590067</v>
+        <v>13.04172307387508</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.46313378207995</v>
+        <v>17.41511251627902</v>
       </c>
       <c r="C22">
-        <v>6.402590180586887</v>
+        <v>10.35759622147153</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.58966871231237</v>
+        <v>40.34174194751967</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.61173418795169</v>
+        <v>2.052876143209072</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.60328405587727</v>
+        <v>10.89803887126621</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.78077422219409</v>
+        <v>15.5705310995839</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.18782137159912</v>
+        <v>10.4059586895249</v>
       </c>
       <c r="O22">
-        <v>19.66752064818281</v>
+        <v>13.12260359432739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.32760438051128</v>
+        <v>17.10067533397493</v>
       </c>
       <c r="C23">
-        <v>6.317321326831434</v>
+        <v>10.1778397456614</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.19553627638737</v>
+        <v>39.50012781063631</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.612373878027433</v>
+        <v>2.054936291703517</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.63629302326301</v>
+        <v>10.94487168217658</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.650667239658297</v>
+        <v>15.30533822606025</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.20981120646932</v>
+        <v>10.49068624421427</v>
       </c>
       <c r="O23">
-        <v>19.69100410431828</v>
+        <v>13.07757422249756</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.798681947928443</v>
+        <v>15.86058626292667</v>
       </c>
       <c r="C24">
-        <v>5.981721565863641</v>
+        <v>9.473472538556262</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.63218759175994</v>
+        <v>36.223337988243</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.614887353264843</v>
+        <v>2.06281417898146</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.76820246241443</v>
+        <v>11.15257053309914</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.250357303494646</v>
+        <v>14.26286594793978</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.29597696484632</v>
+        <v>10.81436509652079</v>
       </c>
       <c r="O24">
-        <v>19.78860159061541</v>
+        <v>12.94668221604249</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.197379329582342</v>
+        <v>14.41600991999016</v>
       </c>
       <c r="C25">
-        <v>5.593437153786605</v>
+        <v>8.662228321368593</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.79378962551509</v>
+        <v>32.48207509566907</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.617793878957055</v>
+        <v>2.071512147609269</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.92515881192496</v>
+        <v>11.43295402199551</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.820217068425665</v>
+        <v>13.0560897763522</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.39511932353742</v>
+        <v>11.17059533145917</v>
       </c>
       <c r="O25">
-        <v>19.91221976678664</v>
+        <v>12.88219884321881</v>
       </c>
     </row>
   </sheetData>
